--- a/data-raw/labnotes_example.xlsx
+++ b/data-raw/labnotes_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ponobo223/Rprojects/bat2dat/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0752E50C-B7C2-AF48-B9A9-0F570035EB20}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29915D81-2728-8E4F-887C-8EC0538B2935}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="7180" windowWidth="21140" windowHeight="16900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10400" yWindow="500" windowWidth="18400" windowHeight="16900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="134">
   <si>
     <t xml:space="preserve">Identifier </t>
   </si>
@@ -364,12 +364,6 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>sample 4</t>
-  </si>
-  <si>
-    <t>sample 5</t>
-  </si>
-  <si>
     <t>to execute synchronization in PowerShell:</t>
   </si>
   <si>
@@ -430,6 +424,42 @@
   </si>
   <si>
     <t>User 2</t>
+  </si>
+  <si>
+    <t>sample3</t>
+  </si>
+  <si>
+    <t>sample4</t>
+  </si>
+  <si>
+    <t>SampleExample_Arbin-1</t>
+  </si>
+  <si>
+    <t>User 3</t>
+  </si>
+  <si>
+    <t>Arbin</t>
+  </si>
+  <si>
+    <t>halfcell-cathode</t>
+  </si>
+  <si>
+    <t>LFP</t>
+  </si>
+  <si>
+    <t>Manufacturer A</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>SampleExample_Arbin-2</t>
   </si>
 </sst>
 </file>
@@ -539,7 +569,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -621,6 +651,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1009,10 +1057,10 @@
   <dimension ref="A1:AMG57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -1021,9 +1069,9 @@
     <col min="2" max="2" width="35.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="39" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="39" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.5" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5" style="43" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26" style="1" customWidth="1"/>
     <col min="11" max="11" width="28.83203125" style="1" customWidth="1"/>
@@ -1042,14 +1090,18 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>119</v>
+      <c r="E1" s="23" t="s">
+        <v>117</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>120</v>
+      <c r="F1" s="23" t="s">
+        <v>118</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="G1" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>123</v>
+      </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -1066,14 +1118,18 @@
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>117</v>
+      <c r="E2" s="20" t="s">
+        <v>115</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>118</v>
+      <c r="F2" s="20" t="s">
+        <v>116</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="G2" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>133</v>
+      </c>
       <c r="I2" s="10"/>
       <c r="J2" s="37"/>
       <c r="K2" s="37"/>
@@ -1090,10 +1146,10 @@
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
@@ -1110,14 +1166,18 @@
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="G4" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>34</v>
+      </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
@@ -1134,14 +1194,18 @@
       <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="G5" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>33</v>
+      </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
@@ -1158,14 +1222,18 @@
       <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>119</v>
+      <c r="E6" s="23" t="s">
+        <v>117</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>120</v>
+      <c r="F6" s="23" t="s">
+        <v>118</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="G6" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>123</v>
+      </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
@@ -1182,10 +1250,10 @@
       <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
@@ -1202,10 +1270,10 @@
       <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
@@ -1218,10 +1286,10 @@
     <row r="9" spans="1:1021">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
@@ -1238,10 +1306,10 @@
       <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
@@ -1258,10 +1326,10 @@
       <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
@@ -1276,14 +1344,18 @@
         <v>35</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="E12" s="15" t="s">
-        <v>121</v>
+      <c r="E12" s="40" t="s">
+        <v>119</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>121</v>
+      <c r="F12" s="40" t="s">
+        <v>119</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="G12" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>119</v>
+      </c>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
@@ -1300,16 +1372,22 @@
       <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="16" t="str">
+      <c r="E13" s="41" t="str">
         <f>E12&amp;"\"&amp;E18&amp;".txt"</f>
         <v>path/to/file\SampleExample_Biologic-1.txt</v>
       </c>
-      <c r="F13" s="16" t="str">
+      <c r="F13" s="41" t="str">
         <f t="shared" ref="F13" si="0">F12&amp;"\"&amp;F18&amp;".txt"</f>
         <v>path/to/file\SampleExample_Biologic-2.txt</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="G13" s="41" t="str">
+        <f>G12&amp;"\"&amp;G18&amp;".res"</f>
+        <v>path/to/file\SampleExample_Arbin-1.res</v>
+      </c>
+      <c r="H13" s="41" t="str">
+        <f>H12&amp;"\"&amp;H18&amp;".xlsx"</f>
+        <v>path/to/file\SampleExample_Arbin-2.xlsx</v>
+      </c>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
@@ -1321,10 +1399,10 @@
     </row>
     <row r="14" spans="1:1021">
       <c r="B14" s="3"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
@@ -1336,15 +1414,15 @@
     </row>
     <row r="15" spans="1:1021">
       <c r="A15" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -1362,14 +1440,18 @@
       <c r="D16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="31" t="s">
-        <v>109</v>
+      <c r="E16" s="23" t="s">
+        <v>117</v>
       </c>
-      <c r="F16" s="31" t="s">
-        <v>108</v>
+      <c r="F16" s="23" t="s">
+        <v>118</v>
       </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
+      <c r="G16" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>123</v>
+      </c>
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
       <c r="K16" s="31"/>
@@ -2384,23 +2466,27 @@
       <c r="AMF16" s="6"/>
       <c r="AMG16" s="6"/>
     </row>
-    <row r="17" spans="1:1021" s="35" customFormat="1" ht="12">
+    <row r="17" spans="1:1021" s="35" customFormat="1">
       <c r="A17" s="32" t="s">
         <v>107</v>
       </c>
       <c r="B17" s="33"/>
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="34" t="str">
+      <c r="E17" s="18" t="str">
         <f>E1</f>
         <v>sample1</v>
       </c>
-      <c r="F17" s="34" t="str">
-        <f t="shared" ref="F17:L17" si="1">F1</f>
+      <c r="F17" s="18" t="str">
+        <f t="shared" ref="F17" si="1">F1</f>
         <v>sample2</v>
       </c>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
+      <c r="G17" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>123</v>
+      </c>
       <c r="I17" s="34"/>
       <c r="J17" s="34"/>
       <c r="K17" s="34"/>
@@ -3424,14 +3510,18 @@
         <v>27</v>
       </c>
       <c r="D18" s="19"/>
-      <c r="E18" s="10" t="s">
-        <v>117</v>
+      <c r="E18" s="20" t="s">
+        <v>115</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>118</v>
+      <c r="F18" s="20" t="s">
+        <v>116</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+      <c r="G18" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>133</v>
+      </c>
       <c r="I18" s="10"/>
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
@@ -4456,13 +4546,17 @@
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
+      <c r="G19" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>125</v>
+      </c>
       <c r="I19" s="22"/>
       <c r="J19" s="22"/>
       <c r="K19" s="22"/>
@@ -5492,8 +5586,12 @@
       <c r="F20" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
+      <c r="G20" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>31</v>
+      </c>
       <c r="I20" s="23"/>
       <c r="J20" s="23"/>
       <c r="K20" s="23"/>
@@ -6520,13 +6618,17 @@
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
+      <c r="G21" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>126</v>
+      </c>
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
       <c r="K21" s="22"/>
@@ -8591,8 +8693,12 @@
       <c r="F23" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
+      <c r="G23" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>127</v>
+      </c>
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
@@ -9617,13 +9723,17 @@
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
+      <c r="G24" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>128</v>
+      </c>
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
@@ -10638,7 +10748,7 @@
       <c r="AMF24" s="6"/>
       <c r="AMG24" s="6"/>
     </row>
-    <row r="25" spans="1:1021" s="8" customFormat="1" ht="12">
+    <row r="25" spans="1:1021" s="8" customFormat="1">
       <c r="A25" s="17" t="s">
         <v>39</v>
       </c>
@@ -10653,8 +10763,12 @@
       <c r="F25" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
+      <c r="G25" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>129</v>
+      </c>
       <c r="I25" s="28"/>
       <c r="J25" s="28"/>
       <c r="K25" s="28"/>
@@ -11686,8 +11800,12 @@
       <c r="F26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
+      <c r="G26" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>130</v>
+      </c>
       <c r="I26" s="19"/>
       <c r="J26" s="19"/>
       <c r="K26" s="19"/>
@@ -12719,8 +12837,12 @@
       <c r="F27" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
+      <c r="G27" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>131</v>
+      </c>
       <c r="I27" s="19"/>
       <c r="J27" s="19"/>
       <c r="K27" s="19"/>
@@ -13752,8 +13874,12 @@
       <c r="F28" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
+      <c r="G28" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>132</v>
+      </c>
       <c r="I28" s="19"/>
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
@@ -14785,8 +14911,12 @@
       <c r="F29" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
+      <c r="G29" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>132</v>
+      </c>
       <c r="I29" s="19"/>
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
@@ -15816,8 +15946,12 @@
       <c r="F30" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
+      <c r="G30" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>49</v>
+      </c>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
@@ -16847,8 +16981,12 @@
       <c r="F31" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
+      <c r="G31" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>51</v>
+      </c>
       <c r="I31" s="19"/>
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
@@ -20966,10 +21104,10 @@
       </c>
       <c r="D35" s="19"/>
       <c r="E35" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
@@ -22004,8 +22142,12 @@
       <c r="F36" s="24">
         <v>7.5525000000000002</v>
       </c>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
+      <c r="G36" s="24">
+        <v>1</v>
+      </c>
+      <c r="H36" s="24">
+        <v>1</v>
+      </c>
       <c r="I36" s="24"/>
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
@@ -23037,8 +23179,12 @@
       <c r="F37" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
+      <c r="G37" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H37" s="24" t="s">
+        <v>62</v>
+      </c>
       <c r="I37" s="24"/>
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
@@ -24065,11 +24211,11 @@
         <v>63</v>
       </c>
       <c r="E38" s="25" t="e">
-        <f t="shared" ref="E38:K38" si="2">E36/E37</f>
+        <f>E36/E37</f>
         <v>#VALUE!</v>
       </c>
       <c r="F38" s="25" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F38" si="2">F36/F37</f>
         <v>#VALUE!</v>
       </c>
       <c r="G38" s="25"/>
@@ -25100,7 +25246,7 @@
         <v>66</v>
       </c>
       <c r="E39" s="24">
-        <f t="shared" ref="E39:K39" si="3">E26*E36/1000</f>
+        <f t="shared" ref="E39:F39" si="3">E26*E36/1000</f>
         <v>2.1760605000000002</v>
       </c>
       <c r="F39" s="24">
@@ -26135,7 +26281,7 @@
         <v>68</v>
       </c>
       <c r="E40" s="25" t="e">
-        <f t="shared" ref="E40:K40" si="4">E39/E37</f>
+        <f t="shared" ref="E40:F40" si="4">E39/E37</f>
         <v>#VALUE!</v>
       </c>
       <c r="F40" s="25" t="e">
@@ -28197,10 +28343,10 @@
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G42" s="18"/>
       <c r="H42" s="18"/>
@@ -30264,8 +30410,8 @@
       <c r="F44" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
       <c r="I44" s="27"/>
       <c r="J44" s="27"/>
       <c r="K44" s="27"/>
@@ -30370,8 +30516,8 @@
       <c r="F48" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
       <c r="I48" s="27"/>
       <c r="J48" s="27"/>
       <c r="K48" s="27"/>
@@ -30396,8 +30542,8 @@
       <c r="F49" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
       <c r="I49" s="27"/>
       <c r="J49" s="27"/>
       <c r="K49" s="27"/>
@@ -30422,8 +30568,8 @@
       <c r="F50" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
       <c r="I50" s="27"/>
       <c r="J50" s="27"/>
       <c r="K50" s="27"/>
@@ -30448,8 +30594,8 @@
       <c r="F51" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
       <c r="I51" s="27"/>
       <c r="J51" s="27"/>
       <c r="K51" s="27"/>
@@ -30474,8 +30620,8 @@
       <c r="F52" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
       <c r="I52" s="27"/>
       <c r="J52" s="27"/>
       <c r="K52" s="27"/>
@@ -30500,8 +30646,8 @@
       <c r="F53" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
       <c r="I53" s="27"/>
       <c r="J53" s="27"/>
       <c r="K53" s="27"/>
@@ -30528,8 +30674,8 @@
       <c r="F54" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
       <c r="I54" s="27"/>
       <c r="J54" s="27"/>
       <c r="K54" s="27"/>
@@ -30580,8 +30726,8 @@
       <c r="F56" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
       <c r="I56" s="27"/>
       <c r="J56" s="27"/>
       <c r="K56" s="27"/>
@@ -30598,8 +30744,8 @@
       <c r="D57" s="26"/>
       <c r="E57" s="26"/>
       <c r="F57" s="26"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
       <c r="I57" s="27"/>
       <c r="J57" s="27"/>
       <c r="K57" s="27"/>
